--- a/documents/BSW_requirement.xlsx
+++ b/documents/BSW_requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajesh\Desktop\githubbbbbb\BSW_project 2\01_Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCCD493-FA8D-4F1A-AA36-71F6CDDAA2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67E63B4-A287-4582-897F-0EF4967994FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>Req ID</t>
   </si>
@@ -314,108 +314,13 @@
     <t>FM</t>
   </si>
   <si>
-    <t>R-1235</t>
-  </si>
-  <si>
-    <t>fault 
-management(FM)</t>
-  </si>
-  <si>
     <t>DTC-event</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a)DTC EVENT requirement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1)system shall support logging all DTC  event ,DTC  to NVM
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">please validate all linked requirements </t>
-  </si>
-  <si>
-    <t>submitted</t>
-  </si>
-  <si>
     <t>AETSFORD3-25641</t>
   </si>
   <si>
     <t>V252</t>
-  </si>
-  <si>
-    <t>R-1523</t>
-  </si>
-  <si>
-    <t>1)system shall log low voltage DTC toNVM when voltage is &lt;8.5v.
-DTC number:0x102030
-DTC name: LOW-COL-DTC, maturity time:5sec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) set voltage to 8.2v
-2)wait for 5 sec 
-3)request 19 06 10 20 30 01
-4)check DTC should be active
-</t>
-  </si>
-  <si>
-    <t>R-1524</t>
-  </si>
-  <si>
-    <t>1)system shall make low voltage DTC passive when voltage is &gt;8.5v and &lt;12.5v
-demature:immediately</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) set voltage to 8.8v
-3)request 19 06 10 20 30 01
-4)check DTC should be passive
-</t>
-  </si>
-  <si>
-    <t>R-1525</t>
-  </si>
-  <si>
-    <t>1)system shall make log high voltage DTC to NVM when voltage is &gt; 12.5.
-DTC number:0x108066
-DTC name:HIGH_VOL_DTC
-maturity time:5sec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) set voltage to 12.6v
-2)wait for 5 sec 
-3)request 19 06 10 20 30 01
-4)check DTC should be active
-</t>
-  </si>
-  <si>
-    <t>R-1526</t>
-  </si>
-  <si>
-    <t>1)system shall make high voltage DTC passive when voltage is set to normal
-demature:immediately</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) set voltage to 12.3v
-3)request 19 06 10 20 30 01
-4)check DTC should be passive
-</t>
   </si>
   <si>
     <t>R-1527</t>
@@ -446,12 +351,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1)miss the message 0x417
-2)send request 19 06 08 70 67 01
-4)check DTC status is active
-</t>
-  </si>
-  <si>
     <t>R-1528</t>
   </si>
   <si>
@@ -459,12 +358,6 @@
 msg id: 0x413
 DTC number:0x87067
 maturity time:N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)recover the message 0x417
-2)send request 19 06 08 70 67 01
-4)check DTC status is passive
-</t>
   </si>
   <si>
     <t>R-1258</t>
@@ -507,12 +400,24 @@
   <si>
     <t>ABSFORD3-5</t>
   </si>
+  <si>
+    <t xml:space="preserve">1)miss the message 0x413
+2)send request 19 02 09
+4)check DTC status is active
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)recover the message 0x413
+2)send request 19 02 09
+4)check DTC status is passive
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -537,14 +442,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -975,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1151,7 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -1296,10 +1193,10 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -1322,10 +1219,10 @@
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
@@ -1348,10 +1245,10 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
@@ -1374,10 +1271,10 @@
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
@@ -1400,10 +1297,10 @@
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -1426,10 +1323,10 @@
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="63" x14ac:dyDescent="0.25">
@@ -1452,10 +1349,10 @@
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
@@ -1478,10 +1375,10 @@
         <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
@@ -1504,10 +1401,10 @@
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="63" x14ac:dyDescent="0.25">
@@ -1530,10 +1427,10 @@
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1541,212 +1438,82 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
         <v>78</v>
       </c>
-      <c r="C22" t="s">
+      <c r="H22" t="s">
         <v>79</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
         <v>76</v>
       </c>
       <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" t="s">
+    </row>
+    <row r="24" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>88</v>
       </c>
       <c r="B24" t="s">
         <v>76</v>
       </c>
       <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s">
         <v>79</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
